--- a/保险.xlsx
+++ b/保险.xlsx
@@ -707,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -721,12 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,38 +729,221 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,203 +952,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,7 +1271,7 @@
   <dimension ref="B1:AB93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="B2" sqref="B2:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1306,714 +1300,714 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="53"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="60" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="58"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>25</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>301</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>6020</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>15</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>200000</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="22" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="58"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="78"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>26</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>514</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>10</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>5140</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>100000</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="61" t="s">
+      <c r="J5" s="53"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>26</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>514</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>20</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>10280</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <v>20</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="22">
         <v>200000</v>
       </c>
-      <c r="S5" s="75"/>
-      <c r="T5" s="58"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="78"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9">
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="7">
         <f>G4+G5</f>
         <v>11160</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="22">
         <f>I4+I5+3000*24</f>
         <v>372000</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="23" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="9">
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="7">
         <v>15680</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="22">
         <f>R5+6000*24</f>
         <v>344000</v>
       </c>
-      <c r="S6" s="82"/>
-      <c r="T6" s="58"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="78"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="7" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="22">
         <f>I4+I5+3000*29</f>
         <v>387000</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="7" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="22">
         <f>R5+6000*29</f>
         <v>374000</v>
       </c>
-      <c r="S7" s="82"/>
-      <c r="T7" s="58"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="78"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="22">
         <f>I4+I5+3000*34</f>
         <v>402000</v>
       </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="7" t="s">
+      <c r="J8" s="54"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="22">
         <f>R5+6000*34</f>
         <v>404000</v>
       </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="58"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="78"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="79" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>432000</v>
       </c>
-      <c r="J9" s="88">
+      <c r="J9" s="51">
         <f>156420+195250</f>
         <v>351670</v>
       </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="79" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="22">
         <v>464000</v>
       </c>
-      <c r="S9" s="88">
+      <c r="S9" s="51">
         <f>195250*2</f>
         <v>390500</v>
       </c>
-      <c r="T9" s="58"/>
+      <c r="T9" s="78"/>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="79" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="50">
         <v>462000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="50">
         <v>419800</v>
       </c>
-      <c r="K10" s="63"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="79" t="s">
+      <c r="K10" s="65"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="87">
+      <c r="R10" s="50">
         <v>524000</v>
       </c>
-      <c r="S10" s="80">
+      <c r="S10" s="49">
         <v>475680</v>
       </c>
-      <c r="T10" s="58"/>
+      <c r="T10" s="78"/>
     </row>
     <row r="11" spans="2:20" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="58"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="78"/>
     </row>
     <row r="12" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="78"/>
     </row>
     <row r="14" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="78"/>
     </row>
     <row r="15" spans="2:20" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="78"/>
     </row>
     <row r="16" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="78"/>
     </row>
     <row r="17" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="78"/>
     </row>
     <row r="18" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="78"/>
     </row>
     <row r="19" spans="2:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="78"/>
     </row>
     <row r="20" spans="2:20" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="78"/>
     </row>
     <row r="21" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="78"/>
     </row>
     <row r="22" spans="2:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="78"/>
     </row>
     <row r="23" spans="2:20" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="78"/>
     </row>
     <row r="24" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="78"/>
     </row>
     <row r="25" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="78"/>
     </row>
     <row r="26" spans="2:20" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="78"/>
     </row>
     <row r="27" spans="2:20" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="78"/>
     </row>
     <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="57"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="79"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
@@ -2290,7 +2284,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="73"/>
+      <c r="K43" s="46"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2309,7 +2303,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="73"/>
+      <c r="K44" s="46"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2328,7 +2322,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="73"/>
+      <c r="K45" s="46"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2347,7 +2341,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="74"/>
+      <c r="K46" s="47"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2366,7 +2360,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="74"/>
+      <c r="K47" s="47"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2385,7 +2379,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="74"/>
+      <c r="K48" s="47"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2404,7 +2398,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="74"/>
+      <c r="K49" s="47"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2423,7 +2417,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="74"/>
+      <c r="K50" s="47"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2442,7 +2436,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="74"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2461,7 +2455,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="74"/>
+      <c r="K52" s="47"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2472,135 +2466,130 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K53" s="74"/>
+      <c r="K53" s="47"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K54" s="74"/>
+      <c r="K54" s="47"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K55" s="74"/>
+      <c r="K55" s="47"/>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K56" s="74"/>
+      <c r="K56" s="47"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K57" s="74"/>
+      <c r="K57" s="47"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K58" s="74"/>
+      <c r="K58" s="47"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K59" s="74"/>
+      <c r="K59" s="47"/>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K60" s="74"/>
+      <c r="K60" s="47"/>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K61" s="74"/>
+      <c r="K61" s="47"/>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K62" s="74"/>
+      <c r="K62" s="47"/>
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K63" s="74"/>
+      <c r="K63" s="47"/>
     </row>
     <row r="64" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K64" s="74"/>
+      <c r="K64" s="47"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="74"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="74"/>
+      <c r="K66" s="47"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K67" s="74"/>
+      <c r="K67" s="47"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="74"/>
+      <c r="K68" s="47"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K69" s="74"/>
+      <c r="K69" s="47"/>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="74"/>
+      <c r="K70" s="47"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K71" s="74"/>
+      <c r="K71" s="47"/>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K72" s="74"/>
+      <c r="K72" s="47"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K73" s="74"/>
+      <c r="K73" s="47"/>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K74" s="74"/>
+      <c r="K74" s="47"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K75" s="74"/>
+      <c r="K75" s="47"/>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K76" s="74"/>
+      <c r="K76" s="47"/>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K77" s="74"/>
+      <c r="K77" s="47"/>
     </row>
     <row r="78" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K78" s="74"/>
+      <c r="K78" s="47"/>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K79" s="74"/>
+      <c r="K79" s="47"/>
     </row>
     <row r="80" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K80" s="74"/>
+      <c r="K80" s="47"/>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K81" s="74"/>
+      <c r="K81" s="47"/>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K82" s="74"/>
+      <c r="K82" s="47"/>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K83" s="74"/>
+      <c r="K83" s="47"/>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K84" s="74"/>
+      <c r="K84" s="47"/>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K85" s="74"/>
+      <c r="K85" s="47"/>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K86" s="74"/>
+      <c r="K86" s="47"/>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K87" s="74"/>
+      <c r="K87" s="47"/>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K88" s="74"/>
+      <c r="K88" s="47"/>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K89" s="74"/>
+      <c r="K89" s="47"/>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K90" s="74"/>
+      <c r="K90" s="47"/>
     </row>
     <row r="91" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K91" s="74"/>
+      <c r="K91" s="47"/>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K92" s="74"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K93" s="74"/>
+      <c r="K93" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="C7:G10"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="L8:P10"/>
-    <mergeCell ref="K3:K10"/>
     <mergeCell ref="C11:S27"/>
     <mergeCell ref="B2:B28"/>
     <mergeCell ref="T2:T28"/>
@@ -2609,6 +2598,11 @@
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:P10"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="C7:G10"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K3:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,243 +2644,243 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>25</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>301</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>20</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>6020</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>15</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>200000</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="25" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>26</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>514</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>5140</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>20</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>100000</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>26</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>514</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <v>20</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>10280</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7">
         <v>20</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="7">
         <v>200000</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="9">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="7">
         <f>F3+F4</f>
         <v>11160</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>42000</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="42" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="9">
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="7">
         <v>15680</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="7">
         <v>44000</v>
       </c>
       <c r="S5" s="4"/>
-      <c r="T5" s="31"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="19" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>462000</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <v>419800</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="14">
         <v>80</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="19" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="14">
         <v>524000</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="14">
         <v>475680</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="16">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -2899,17 +2893,17 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -2922,15 +2916,15 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
     </row>
     <row r="10" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -2943,15 +2937,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
     </row>
     <row r="11" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -2964,15 +2958,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="30"/>
     </row>
     <row r="12" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -2985,15 +2979,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
     </row>
     <row r="13" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -3006,15 +3000,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
     </row>
     <row r="14" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3027,15 +3021,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="30"/>
     </row>
     <row r="15" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -3048,15 +3042,15 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
     </row>
     <row r="16" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -3069,15 +3063,15 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="30"/>
     </row>
     <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -3090,15 +3084,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -3111,15 +3105,15 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="30"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3132,15 +3126,15 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -3153,15 +3147,15 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
     </row>
     <row r="21" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -3174,15 +3168,15 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -3195,15 +3189,15 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="38"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="30"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -3217,15 +3211,15 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>

--- a/保险.xlsx
+++ b/保险.xlsx
@@ -113,9 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投保第24年，51岁</t>
-  </si>
-  <si>
     <t xml:space="preserve">总保费相差4520，退掉福佑，买20份金佑多花4520
 投保第34年时两种情况保额持平
 34年后右边的保额将超过左边
@@ -128,6 +125,10 @@
 55岁到60之间发生风险退比不退亏33400
 总上分析，风险划分为60岁前和60岁后，60岁前风险高不退，60岁后风险高退
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保第29年，55岁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,51 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,6 +893,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,6 +928,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,7 +1272,7 @@
   <dimension ref="B1:AB93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T28"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1300,28 +1301,28 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="77"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1347,7 @@
       <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="44" t="s">
         <v>0</v>
       </c>
@@ -1371,10 +1372,10 @@
       <c r="S3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="78"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
@@ -1396,22 +1397,22 @@
       <c r="I4" s="7">
         <v>200000</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="81" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="78"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="65"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="58"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
@@ -1433,8 +1434,8 @@
       <c r="I5" s="7">
         <v>100000</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="65"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="45" t="s">
         <v>6</v>
       </c>
@@ -1456,17 +1457,17 @@
       <c r="R5" s="22">
         <v>200000</v>
       </c>
-      <c r="S5" s="52"/>
-      <c r="T5" s="78"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="65"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="7">
         <f>G4+G5</f>
         <v>11160</v>
@@ -1478,14 +1479,14 @@
         <f>I4+I5+3000*24</f>
         <v>372000</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="85" t="s">
+      <c r="J6" s="82"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="73"/>
       <c r="P6" s="7">
         <v>15680</v>
       </c>
@@ -1496,47 +1497,47 @@
         <f>R5+6000*24</f>
         <v>344000</v>
       </c>
-      <c r="S6" s="53"/>
-      <c r="T6" s="78"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="65"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="22">
         <f>I4+I5+3000*29</f>
         <v>387000</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
       <c r="Q7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R7" s="22">
         <f>R5+6000*29</f>
         <v>374000</v>
       </c>
-      <c r="S7" s="53"/>
-      <c r="T7" s="78"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="65"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1544,13 +1545,13 @@
         <f>I4+I5+3000*34</f>
         <v>402000</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="60"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
       <c r="Q8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1558,16 +1559,16 @@
         <f>R5+6000*34</f>
         <v>404000</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="78"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="65"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="48" t="s">
         <v>19</v>
       </c>
@@ -1578,12 +1579,12 @@
         <f>156420+195250</f>
         <v>351670</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
       <c r="Q9" s="48" t="s">
         <v>20</v>
       </c>
@@ -1594,15 +1595,15 @@
         <f>195250*2</f>
         <v>390500</v>
       </c>
-      <c r="T9" s="78"/>
+      <c r="T9" s="65"/>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="48" t="s">
         <v>16</v>
       </c>
@@ -1612,12 +1613,12 @@
       <c r="J10" s="50">
         <v>419800</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="48" t="s">
         <v>16</v>
       </c>
@@ -1627,387 +1628,387 @@
       <c r="S10" s="49">
         <v>475680</v>
       </c>
-      <c r="T10" s="78"/>
+      <c r="T10" s="65"/>
     </row>
     <row r="11" spans="2:20" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="78"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="65"/>
     </row>
     <row r="12" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="78"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="65"/>
     </row>
     <row r="13" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="78"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="65"/>
     </row>
     <row r="14" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="78"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="65"/>
     </row>
     <row r="15" spans="2:20" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="78"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="65"/>
     </row>
     <row r="16" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="78"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="65"/>
     </row>
     <row r="17" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="78"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="65"/>
     </row>
     <row r="18" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="78"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="65"/>
     </row>
     <row r="19" spans="2:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="78"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="65"/>
     </row>
     <row r="20" spans="2:20" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="78"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="65"/>
     </row>
     <row r="21" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="78"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="65"/>
     </row>
     <row r="22" spans="2:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="78"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="65"/>
     </row>
     <row r="23" spans="2:20" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="78"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="65"/>
     </row>
     <row r="24" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="78"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="65"/>
     </row>
     <row r="25" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="78"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="65"/>
     </row>
     <row r="26" spans="2:20" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="78"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="65"/>
     </row>
     <row r="27" spans="2:20" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="78"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="65"/>
     </row>
     <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="79"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="66"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>

--- a/保险.xlsx
+++ b/保险.xlsx
@@ -113,6 +113,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>投保第24年，51岁</t>
+  </si>
+  <si>
     <t xml:space="preserve">总保费相差4520，退掉福佑，买20份金佑多花4520
 投保第34年时两种情况保额持平
 34年后右边的保额将超过左边
@@ -125,10 +128,6 @@
 55岁到60之间发生风险退比不退亏33400
 总上分析，风险划分为60岁前和60岁后，60岁前风险高不退，60岁后风险高退
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保第29年，55岁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -722,6 +721,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,6 +736,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,6 +757,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,6 +768,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -839,10 +862,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -851,121 +931,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1277,7 @@
   <dimension ref="B1:AB93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1301,714 +1306,714 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="64"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="53"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="44" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="65"/>
+      <c r="T3" s="58"/>
     </row>
     <row r="4" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="62"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>301</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>20</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="9">
         <v>6020</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <v>15</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <v>200000</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="68" t="s">
+      <c r="J4" s="75"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="65"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="58"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="62"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>26</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>514</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>10</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>5140</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>20</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>100000</v>
       </c>
       <c r="J5" s="82"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="9">
         <v>26</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="9">
         <v>514</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="9">
         <v>20</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="9">
         <v>10280</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="9">
         <v>20</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="30">
         <v>200000</v>
       </c>
-      <c r="S5" s="81"/>
-      <c r="T5" s="65"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="58"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="62"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="7">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9">
         <f>G4+G5</f>
         <v>11160</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="30">
         <f>I4+I5+3000*24</f>
         <v>372000</v>
       </c>
       <c r="J6" s="82"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="72" t="s">
+      <c r="K6" s="83"/>
+      <c r="L6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="7">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="9">
         <v>15680</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="30">
         <f>R5+6000*24</f>
         <v>344000</v>
       </c>
       <c r="S6" s="82"/>
-      <c r="T6" s="65"/>
+      <c r="T6" s="58"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="22">
+      <c r="B7" s="54"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="30">
         <f>I4+I5+3000*29</f>
         <v>387000</v>
       </c>
       <c r="J7" s="82"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="22">
+      <c r="K7" s="83"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="30">
         <f>R5+6000*29</f>
         <v>374000</v>
       </c>
       <c r="S7" s="82"/>
-      <c r="T7" s="65"/>
+      <c r="T7" s="58"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="5" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="30">
         <f>I4+I5+3000*34</f>
         <v>402000</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="5" t="s">
+      <c r="J8" s="76"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="30">
         <f>R5+6000*34</f>
         <v>404000</v>
       </c>
-      <c r="S8" s="83"/>
-      <c r="T8" s="65"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="58"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="48" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <v>432000</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="88">
         <f>156420+195250</f>
         <v>351670</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="48" t="s">
+      <c r="K9" s="63"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="30">
         <v>464000</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="88">
         <f>195250*2</f>
         <v>390500</v>
       </c>
-      <c r="T9" s="65"/>
+      <c r="T9" s="58"/>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="48" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="87">
         <v>462000</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="87">
         <v>419800</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="48" t="s">
+      <c r="K10" s="63"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="87">
         <v>524000</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="80">
         <v>475680</v>
       </c>
-      <c r="T10" s="65"/>
+      <c r="T10" s="58"/>
     </row>
     <row r="11" spans="2:20" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="65"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="58"/>
     </row>
     <row r="12" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="65"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="58"/>
     </row>
     <row r="13" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="62"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="65"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="58"/>
     </row>
     <row r="14" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="62"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="65"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="58"/>
     </row>
     <row r="15" spans="2:20" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="65"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="58"/>
     </row>
     <row r="16" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="62"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="65"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="58"/>
     </row>
     <row r="17" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="62"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="65"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="58"/>
     </row>
     <row r="18" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="65"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="58"/>
     </row>
     <row r="19" spans="2:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="65"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="58"/>
     </row>
     <row r="20" spans="2:20" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="65"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="58"/>
     </row>
     <row r="21" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="65"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="58"/>
     </row>
     <row r="22" spans="2:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="65"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="58"/>
     </row>
     <row r="23" spans="2:20" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="65"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="58"/>
     </row>
     <row r="24" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="62"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="65"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="58"/>
     </row>
     <row r="25" spans="2:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="65"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="58"/>
     </row>
     <row r="26" spans="2:20" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="65"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="58"/>
     </row>
     <row r="27" spans="2:20" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="65"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="58"/>
     </row>
     <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="66"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="57"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
@@ -2285,7 +2290,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="46"/>
+      <c r="K43" s="73"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2304,7 +2309,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="46"/>
+      <c r="K44" s="73"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2323,7 +2328,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="46"/>
+      <c r="K45" s="73"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2342,7 +2347,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="47"/>
+      <c r="K46" s="74"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2361,7 +2366,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="47"/>
+      <c r="K47" s="74"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2380,7 +2385,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="47"/>
+      <c r="K48" s="74"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2399,7 +2404,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="47"/>
+      <c r="K49" s="74"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2418,7 +2423,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="47"/>
+      <c r="K50" s="74"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2437,7 +2442,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="47"/>
+      <c r="K51" s="74"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2456,7 +2461,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="47"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2467,130 +2472,135 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K53" s="47"/>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K54" s="47"/>
+      <c r="K54" s="74"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K55" s="47"/>
+      <c r="K55" s="74"/>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K56" s="47"/>
+      <c r="K56" s="74"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K57" s="47"/>
+      <c r="K57" s="74"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K58" s="47"/>
+      <c r="K58" s="74"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K59" s="47"/>
+      <c r="K59" s="74"/>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K60" s="47"/>
+      <c r="K60" s="74"/>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K61" s="47"/>
+      <c r="K61" s="74"/>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K62" s="47"/>
+      <c r="K62" s="74"/>
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K63" s="47"/>
+      <c r="K63" s="74"/>
     </row>
     <row r="64" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K64" s="47"/>
+      <c r="K64" s="74"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="47"/>
+      <c r="K65" s="74"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="47"/>
+      <c r="K66" s="74"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K67" s="47"/>
+      <c r="K67" s="74"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="47"/>
+      <c r="K68" s="74"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K69" s="47"/>
+      <c r="K69" s="74"/>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="47"/>
+      <c r="K70" s="74"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K71" s="47"/>
+      <c r="K71" s="74"/>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K72" s="47"/>
+      <c r="K72" s="74"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K73" s="47"/>
+      <c r="K73" s="74"/>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K74" s="47"/>
+      <c r="K74" s="74"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K75" s="47"/>
+      <c r="K75" s="74"/>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K76" s="47"/>
+      <c r="K76" s="74"/>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K77" s="47"/>
+      <c r="K77" s="74"/>
     </row>
     <row r="78" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K78" s="47"/>
+      <c r="K78" s="74"/>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K79" s="47"/>
+      <c r="K79" s="74"/>
     </row>
     <row r="80" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K80" s="47"/>
+      <c r="K80" s="74"/>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K81" s="47"/>
+      <c r="K81" s="74"/>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K82" s="47"/>
+      <c r="K82" s="74"/>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K83" s="47"/>
+      <c r="K83" s="74"/>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K84" s="47"/>
+      <c r="K84" s="74"/>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K85" s="47"/>
+      <c r="K85" s="74"/>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K86" s="47"/>
+      <c r="K86" s="74"/>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K87" s="47"/>
+      <c r="K87" s="74"/>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K88" s="47"/>
+      <c r="K88" s="74"/>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K89" s="47"/>
+      <c r="K89" s="74"/>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K90" s="47"/>
+      <c r="K90" s="74"/>
     </row>
     <row r="91" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K91" s="47"/>
+      <c r="K91" s="74"/>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K92" s="47"/>
+      <c r="K92" s="74"/>
     </row>
     <row r="93" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K93" s="47"/>
+      <c r="K93" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="C7:G10"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="L8:P10"/>
+    <mergeCell ref="K3:K10"/>
     <mergeCell ref="C11:S27"/>
     <mergeCell ref="B2:B28"/>
     <mergeCell ref="T2:T28"/>
@@ -2599,11 +2609,6 @@
     <mergeCell ref="L4:S4"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:P10"/>
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="C7:G10"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="K3:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2645,243 +2650,243 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>25</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>301</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>20</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>6020</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <v>15</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="9">
         <v>200000</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="17" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>26</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>514</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>5140</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="9">
         <v>20</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <v>100000</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="9">
         <v>26</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="9">
         <v>514</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="9">
         <v>20</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="9">
         <v>10280</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="9">
         <v>20</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="9">
         <v>200000</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="7">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="9">
         <f>F3+F4</f>
         <v>11160</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>42000</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="34" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="7">
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="9">
         <v>15680</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="9">
         <v>44000</v>
       </c>
       <c r="S5" s="4"/>
-      <c r="T5" s="23"/>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="15" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="18">
         <v>462000</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="18">
         <v>419800</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="18">
         <v>80</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="15" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="18">
         <v>524000</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="18">
         <v>475680</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="20">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -2894,17 +2899,17 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="27"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -2917,15 +2922,15 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
     </row>
     <row r="10" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -2938,15 +2943,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
     </row>
     <row r="11" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -2959,15 +2964,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
     </row>
     <row r="12" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -2980,15 +2985,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
     </row>
     <row r="13" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -3001,15 +3006,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
     </row>
     <row r="14" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3022,15 +3027,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
     </row>
     <row r="15" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -3043,15 +3048,15 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
     </row>
     <row r="16" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -3064,15 +3069,15 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -3085,15 +3090,15 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="30"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -3106,15 +3111,15 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="30"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -3127,15 +3132,15 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="30"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -3148,15 +3153,15 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="30"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
     </row>
     <row r="21" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -3169,15 +3174,15 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="30"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -3190,15 +3195,15 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="30"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -3212,15 +3217,15 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="33"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
